--- a/medicine/Sexualité et sexologie/Sex_and_Zen_2/Sex_and_Zen_2.xlsx
+++ b/medicine/Sexualité et sexologie/Sex_and_Zen_2/Sex_and_Zen_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sex and Zen 2 (玉蒲團II之玉女心經, Yuk po tuen II: Yuk lui sam ging) est un film hongkongais réalisé par Man Kei Chin de 1996.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune fille veut devenir étudiante, et pour accéder à l'université, se déguise en garçon. Son père l'oblige alors à porter une ceinture de chasteté. Un garçon séduit la belle, mais se casse le sexe sur la ceinture. Il se fait alors greffer un sexe de cheval qui va décupler sa puissance sexuelle.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Sex and Zen 2
 Titre original : 玉蒲團II之玉女心經 (Yuk po tuen II: Yuk lui sam ging)
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shu Qi : Mirage Lady/Siu-Tsui
 Ben Ng : L'homme de fer
